--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
@@ -21,7 +21,7 @@
     <definedName name="Assessment">'[1]Form FS'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Form WC'!$A$2:$AG$53</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,15 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>Chong Chi Fam</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Date:</t>
-  </si>
-  <si>
-    <t>JKR/IW/MR/20/07</t>
   </si>
   <si>
     <t>FORM WC</t>
@@ -66,9 +60,6 @@
     <t>Kompleks Islam Sarawak, Miri, Jalan Pujut</t>
   </si>
   <si>
-    <t>CONTRACT NO: PWD/HO/B130/2019</t>
-  </si>
-  <si>
     <t>PEFORMANCE-BASED CONTRACT  FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS [JALAN RAYA NEGERI (JRN) IN SARAWAK] - PACKAGE 4 (MIRI DIVISION)</t>
   </si>
   <si>
@@ -81,102 +72,13 @@
     <t>:</t>
   </si>
   <si>
-    <t>PWM/HO/B130/2019(124)</t>
-  </si>
-  <si>
     <t>Your Ref.</t>
-  </si>
-  <si>
-    <t>ENDAYA CONSSTRUCTION SDN BHD</t>
-  </si>
-  <si>
-    <t>Lot 1934,1st-3rd Floor</t>
-  </si>
-  <si>
-    <t>Marina Square, Phase 2</t>
-  </si>
-  <si>
-    <t>98000 Miri, Sarawak</t>
-  </si>
-  <si>
-    <t>Tel: 085-431273</t>
-  </si>
-  <si>
-    <t>Fax: 085-438647</t>
   </si>
   <si>
     <t>S.O.'s Instruction No.:</t>
   </si>
   <si>
     <t>Instructed Work Title:</t>
-  </si>
-  <si>
-    <t>PROPOSED REHABILATION FOR SLOPE AT CH28+970,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q3178 JALAN MIRI MARUDI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In accordance with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Clause 8.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of the Agreement, it is hereby certified that the Instructed Work achieved Practical Completion on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13/05/2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> And that the Defects Liability Period in respect of the said Instructed Work began on the same day and will end on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13/06/2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
   </si>
   <si>
     <t>'BERSATU BERUSAHA BERBAKTI'</t>
@@ -351,19 +253,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,13 +277,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +326,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,8 +348,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167668" y="128588"/>
-          <a:ext cx="901513" cy="1091994"/>
+          <a:off x="167668" y="127001"/>
+          <a:ext cx="909451" cy="1098344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,14 +757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="AZ40" sqref="AZ40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
+    <col min="9" max="32" width="2.7109375" style="1" customWidth="1"/>
     <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
     <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
     <col min="43" max="16384" width="8.85546875" style="1"/>
@@ -870,57 +772,57 @@
   <sheetData>
     <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+    </row>
+    <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-    </row>
-    <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="K4" s="2" t="s">
+      <c r="L5" s="4"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+    </row>
+    <row r="6" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="K5" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+    </row>
+    <row r="7" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-    </row>
-    <row r="6" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="K6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-    </row>
-    <row r="7" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="K7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L7" s="4"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
     </row>
     <row r="8" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -956,144 +858,142 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
-        <v>8</v>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+    </row>
+    <row r="10" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-    </row>
-    <row r="10" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>9</v>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+    </row>
+    <row r="11" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+    </row>
+    <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-    </row>
-    <row r="11" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-    </row>
-    <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -1161,16 +1061,14 @@
     </row>
     <row r="14" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1187,27 +1085,25 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="21">
-        <v>44399</v>
-      </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -1242,20 +1138,20 @@
     </row>
     <row r="15" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1313,13 +1209,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1437,9 +1333,7 @@
       <c r="BV17" s="6"/>
     </row>
     <row r="18" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
@@ -1470,13 +1364,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -1510,9 +1404,7 @@
       <c r="BV18" s="6"/>
     </row>
     <row r="19" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
@@ -1543,18 +1435,16 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="3"/>
@@ -1585,18 +1475,16 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="3"/>
@@ -1627,13 +1515,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
@@ -1669,9 +1557,7 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="3"/>
@@ -1702,18 +1588,16 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="3"/>
@@ -1744,13 +1628,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
@@ -1820,107 +1704,101 @@
     </row>
     <row r="27" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
     </row>
     <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
     </row>
     <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
     </row>
     <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="12"/>
@@ -1949,211 +1827,204 @@
       <c r="AF30" s="12"/>
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B32" s="16" t="s">
-        <v>25</v>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+    </row>
+    <row r="38" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="24" t="s">
+        <v>13</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-    </row>
-    <row r="38" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
@@ -2173,27 +2044,24 @@
     </row>
     <row r="47" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="AH28:AN28"/>
+    <mergeCell ref="I29:AF29"/>
+    <mergeCell ref="B32:AF36"/>
+    <mergeCell ref="B38:AF38"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="AH27:AN27"/>
     <mergeCell ref="B12:AF12"/>
@@ -2207,11 +2075,12 @@
     <mergeCell ref="AH21:AN21"/>
     <mergeCell ref="AH23:AN23"/>
     <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="I29:AF29"/>
-    <mergeCell ref="B32:AF36"/>
-    <mergeCell ref="B38:AF38"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="B9:AF9"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="93" orientation="portrait" r:id="rId1"/>
@@ -2229,6 +2098,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2445,12 +2320,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
@@ -2460,6 +2329,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2476,21 +2362,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
@@ -253,16 +253,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,16 +280,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -326,7 +326,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -772,13 +774,13 @@
   <sheetData>
     <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
     </row>
     <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
@@ -790,39 +792,39 @@
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
     </row>
     <row r="8" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -858,142 +860,142 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
     </row>
     <row r="11" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
     </row>
     <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -1068,7 +1070,7 @@
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1089,21 +1091,21 @@
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -1145,13 +1147,13 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1209,13 +1211,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1364,13 +1366,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -1435,13 +1437,13 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
@@ -1475,13 +1477,13 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
@@ -1515,13 +1517,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
@@ -1588,13 +1590,13 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
@@ -1628,13 +1630,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
@@ -1706,99 +1708,99 @@
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
     </row>
     <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
     </row>
     <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
     </row>
     <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="12"/>
@@ -1827,204 +1829,204 @@
       <c r="AF30" s="12"/>
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
     </row>
     <row r="38" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
@@ -2057,11 +2059,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="I29:AF29"/>
-    <mergeCell ref="B32:AF36"/>
-    <mergeCell ref="B38:AF38"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="B9:AF9"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="AH27:AN27"/>
     <mergeCell ref="B12:AF12"/>
@@ -2075,12 +2078,11 @@
     <mergeCell ref="AH21:AN21"/>
     <mergeCell ref="AH23:AN23"/>
     <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="AH28:AN28"/>
+    <mergeCell ref="I29:AF29"/>
+    <mergeCell ref="B32:AF36"/>
+    <mergeCell ref="B38:AF38"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="93" orientation="portrait" r:id="rId1"/>
@@ -2098,12 +2100,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2320,6 +2316,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
@@ -2329,23 +2331,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2362,4 +2347,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date:</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Jurutera Bahagian</t>
+  </si>
+  <si>
+    <t>CONTRACT NO: PWD/HO/B130/2019</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -253,20 +256,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,14 +280,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,7 +332,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +764,7 @@
   <dimension ref="B1:BV50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:L15"/>
+      <selection activeCell="B10" sqref="B10:AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,13 +780,13 @@
   <sheetData>
     <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
     </row>
     <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
@@ -792,39 +798,39 @@
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
     </row>
     <row r="8" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -860,142 +866,144 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
+      <c r="B9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
     </row>
     <row r="11" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
     </row>
     <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -1070,7 +1078,7 @@
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1091,21 +1099,21 @@
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -1147,13 +1155,13 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1211,13 +1219,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1366,13 +1374,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -1437,13 +1445,13 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
@@ -1477,13 +1485,13 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
@@ -1517,13 +1525,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
@@ -1590,13 +1598,13 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
@@ -1630,13 +1638,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
@@ -1708,99 +1716,99 @@
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
     </row>
     <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
     </row>
     <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
     </row>
     <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="12"/>
@@ -1829,204 +1837,204 @@
       <c r="AF30" s="12"/>
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
     </row>
     <row r="38" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
@@ -2059,12 +2067,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="AH28:AN28"/>
+    <mergeCell ref="I29:AF29"/>
+    <mergeCell ref="B32:AF36"/>
+    <mergeCell ref="B38:AF38"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="AH27:AN27"/>
     <mergeCell ref="B12:AF12"/>
@@ -2078,11 +2085,12 @@
     <mergeCell ref="AH21:AN21"/>
     <mergeCell ref="AH23:AN23"/>
     <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="I29:AF29"/>
-    <mergeCell ref="B32:AF36"/>
-    <mergeCell ref="B38:AF38"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="B9:AF9"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="93" orientation="portrait" r:id="rId1"/>
@@ -2100,6 +2108,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2316,12 +2330,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
@@ -2331,6 +2339,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2347,21 +2372,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Form WC" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="Assessment">'[1]Form FS'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form WC'!$A$2:$AG$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form WC'!$A$2:$AG$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Date:</t>
   </si>
@@ -87,10 +87,43 @@
     <t>Superintending Officer</t>
   </si>
   <si>
-    <t>Jurutera Bahagian</t>
+    <t>CONTRACT NO: PWD/HO/B130/2019</t>
   </si>
   <si>
-    <t>CONTRACT NO: PWD/HO/B130/2019</t>
+    <t xml:space="preserve">achieved Practical Completion on </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In accordance with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clause 8.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the Agreement, it is hereby certified that the Instructed Work </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> and that the Defects Liability Period in respect of the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">said Instructed Work began on the same day and will end on </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -231,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,14 +292,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,20 +340,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,7 +383,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -761,78 +812,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BV50"/>
+  <dimension ref="B1:BV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:AG11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9" max="32" width="2.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="2.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9" max="32" width="2.7265625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="16" t="s">
+    <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-    </row>
-    <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+    </row>
+    <row r="4" spans="2:74" x14ac:dyDescent="0.3">
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:74" x14ac:dyDescent="0.3">
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-    </row>
-    <row r="6" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+    </row>
+    <row r="6" spans="2:74" x14ac:dyDescent="0.3">
       <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-    </row>
-    <row r="7" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+    </row>
+    <row r="7" spans="2:74" x14ac:dyDescent="0.3">
       <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-    </row>
-    <row r="8" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+    </row>
+    <row r="8" spans="2:74" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -865,9 +916,9 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -900,110 +951,110 @@
       <c r="AE9" s="26"/>
       <c r="AF9" s="26"/>
     </row>
-    <row r="10" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-    </row>
-    <row r="11" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-    </row>
-    <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+    </row>
+    <row r="11" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+    </row>
+    <row r="12" spans="2:74" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -1036,7 +1087,7 @@
       <c r="BU12" s="6"/>
       <c r="BV12" s="6"/>
     </row>
-    <row r="13" spans="2:74" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:74" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AR13" s="7"/>
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
@@ -1069,7 +1120,7 @@
       <c r="BU13" s="8"/>
       <c r="BV13" s="8"/>
     </row>
-    <row r="14" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1099,21 +1150,21 @@
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -1146,7 +1197,7 @@
       <c r="BU14" s="8"/>
       <c r="BV14" s="8"/>
     </row>
-    <row r="15" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1155,13 +1206,13 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1214,18 +1265,18 @@
       <c r="BU15" s="8"/>
       <c r="BV15" s="8"/>
     </row>
-    <row r="16" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1278,7 +1329,7 @@
       <c r="BU16" s="8"/>
       <c r="BV16" s="8"/>
     </row>
-    <row r="17" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1342,7 +1393,7 @@
       <c r="BU17" s="6"/>
       <c r="BV17" s="6"/>
     </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1374,13 +1425,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -1413,7 +1464,7 @@
       <c r="BU18" s="6"/>
       <c r="BV18" s="6"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1445,15 +1496,15 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-    </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+    </row>
+    <row r="20" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1485,15 +1536,15 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-    </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+    </row>
+    <row r="21" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1525,15 +1576,15 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-    </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+    </row>
+    <row r="22" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1566,7 +1617,7 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1598,15 +1649,15 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-    </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+    </row>
+    <row r="24" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1638,15 +1689,15 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-    </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+    </row>
+    <row r="25" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1679,7 +1730,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1712,105 +1763,105 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-    </row>
-    <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+    </row>
+    <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-    </row>
-    <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-    </row>
-    <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+    </row>
+    <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+    </row>
+    <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -1836,242 +1887,231 @@
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-    </row>
-    <row r="38" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+    <row r="32" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="I29:AF29"/>
-    <mergeCell ref="B32:AF36"/>
-    <mergeCell ref="B38:AF38"/>
+  <mergeCells count="29">
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="B9:AF9"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="AH27:AN27"/>
     <mergeCell ref="B12:AF12"/>
@@ -2085,12 +2125,15 @@
     <mergeCell ref="AH21:AN21"/>
     <mergeCell ref="AH23:AN23"/>
     <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="AH28:AN28"/>
+    <mergeCell ref="I29:AF29"/>
+    <mergeCell ref="B37:AF37"/>
+    <mergeCell ref="B32:AG32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:AF33"/>
+    <mergeCell ref="B34:T34"/>
+    <mergeCell ref="U34:X34"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="93" orientation="portrait" r:id="rId1"/>
@@ -2108,12 +2151,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2330,6 +2367,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
@@ -2339,23 +2382,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2372,4 +2398,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Form WC" sheetId="3" r:id="rId1"/>
@@ -298,32 +298,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,11 +322,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +383,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{692B5D37-7E60-474B-BD9A-7EF26BD16D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -814,76 +814,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:O33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="2.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="1" customWidth="1"/>
-    <col min="9" max="32" width="2.7265625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
+    <col min="9" max="32" width="2.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="AB2" s="25" t="s">
+    <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-    </row>
-    <row r="4" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-    </row>
-    <row r="6" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+    </row>
+    <row r="6" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-    </row>
-    <row r="7" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+    </row>
+    <row r="7" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-    </row>
-    <row r="8" spans="2:74" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+    </row>
+    <row r="8" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -916,145 +916,145 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-    </row>
-    <row r="10" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+    </row>
+    <row r="10" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-    </row>
-    <row r="11" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-    </row>
-    <row r="12" spans="2:74" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -1087,7 +1087,7 @@
       <c r="BU12" s="6"/>
       <c r="BV12" s="6"/>
     </row>
-    <row r="13" spans="2:74" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:74" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR13" s="7"/>
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
@@ -1120,7 +1120,7 @@
       <c r="BU13" s="8"/>
       <c r="BV13" s="8"/>
     </row>
-    <row r="14" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1150,21 +1150,21 @@
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -1197,7 +1197,7 @@
       <c r="BU14" s="8"/>
       <c r="BV14" s="8"/>
     </row>
-    <row r="15" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1206,13 +1206,13 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1265,18 +1265,18 @@
       <c r="BU15" s="8"/>
       <c r="BV15" s="8"/>
     </row>
-    <row r="16" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1329,7 +1329,7 @@
       <c r="BU16" s="8"/>
       <c r="BV16" s="8"/>
     </row>
-    <row r="17" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:74" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1393,7 +1393,7 @@
       <c r="BU17" s="6"/>
       <c r="BV17" s="6"/>
     </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1425,13 +1425,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -1464,7 +1464,7 @@
       <c r="BU18" s="6"/>
       <c r="BV18" s="6"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1496,15 +1496,15 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-    </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+    </row>
+    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1536,15 +1536,15 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-    </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+    </row>
+    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1576,15 +1576,15 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
-    </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+    </row>
+    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1617,7 +1617,7 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1649,15 +1649,15 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
-    </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+    </row>
+    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1689,15 +1689,15 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-    </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+    </row>
+    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1730,7 +1730,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1763,105 +1763,105 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-    </row>
-    <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+    </row>
+    <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-    </row>
-    <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-    </row>
-    <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+    </row>
+    <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+    </row>
+    <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -1887,43 +1887,43 @@
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+    </row>
+    <row r="33" spans="2:32" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>16</v>
       </c>
@@ -1936,52 +1936,52 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="21" t="s">
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+    </row>
+    <row r="34" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="31"/>
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
@@ -1997,7 +1997,7 @@
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2030,42 +2030,42 @@
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -2081,30 +2081,43 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I29:AF29"/>
+    <mergeCell ref="B37:AF37"/>
+    <mergeCell ref="B32:AG32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:AF33"/>
+    <mergeCell ref="B34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="AH20:AN20"/>
+    <mergeCell ref="AH21:AN21"/>
+    <mergeCell ref="AH23:AN23"/>
+    <mergeCell ref="AH24:AN24"/>
+    <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="AH28:AN28"/>
     <mergeCell ref="B49:M49"/>
     <mergeCell ref="B10:AG11"/>
     <mergeCell ref="AB2:AF2"/>
@@ -2121,19 +2134,6 @@
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="AH18:AN18"/>
     <mergeCell ref="AH19:AN19"/>
-    <mergeCell ref="AH20:AN20"/>
-    <mergeCell ref="AH21:AN21"/>
-    <mergeCell ref="AH23:AN23"/>
-    <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="I29:AF29"/>
-    <mergeCell ref="B37:AF37"/>
-    <mergeCell ref="B32:AG32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:AF33"/>
-    <mergeCell ref="B34:T34"/>
-    <mergeCell ref="U34:X34"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="93" orientation="portrait" r:id="rId1"/>
@@ -2151,6 +2151,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2367,12 +2373,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
@@ -2382,6 +2382,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2398,21 +2415,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWC.xlsx
@@ -298,6 +298,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -332,19 +336,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,7 +372,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>116681</xdr:colOff>
+      <xdr:colOff>92869</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>58532</xdr:rowOff>
     </xdr:to>
@@ -814,16 +812,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:M49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" style="1" customWidth="1"/>
-    <col min="9" max="32" width="2.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="2.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="1" customWidth="1"/>
+    <col min="16" max="19" width="2.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4" style="1" customWidth="1"/>
+    <col min="21" max="23" width="2.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" style="1" customWidth="1"/>
+    <col min="25" max="31" width="2.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="1" customWidth="1"/>
     <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
     <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
     <col min="43" max="16384" width="8.85546875" style="1"/>
@@ -831,13 +841,13 @@
   <sheetData>
     <row r="1" spans="2:74" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
     </row>
     <row r="4" spans="2:74" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
@@ -849,39 +859,39 @@
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
     </row>
     <row r="6" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
     </row>
     <row r="7" spans="2:74" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
     </row>
     <row r="8" spans="2:74" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -917,144 +927,144 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
     </row>
     <row r="10" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
     </row>
     <row r="11" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
     </row>
     <row r="12" spans="2:74" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
@@ -1150,21 +1160,21 @@
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -1206,13 +1216,13 @@
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1270,13 +1280,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1425,13 +1435,13 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
@@ -1496,13 +1506,13 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
     </row>
     <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
@@ -1536,13 +1546,13 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
     </row>
     <row r="21" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
@@ -1576,13 +1586,13 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
     </row>
     <row r="22" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
@@ -1649,13 +1659,13 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
     </row>
     <row r="24" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
@@ -1689,13 +1699,13 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
@@ -1767,99 +1777,99 @@
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
     </row>
     <row r="28" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
     </row>
     <row r="29" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
     </row>
     <row r="30" spans="2:74" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="12"/>
@@ -1888,42 +1898,42 @@
       <c r="AF30" s="12"/>
     </row>
     <row r="32" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-    </row>
-    <row r="33" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+    </row>
+    <row r="33" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>16</v>
       </c>
@@ -1936,52 +1946,53 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30" t="s">
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-    </row>
-    <row r="34" spans="2:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="17"/>
+    </row>
+    <row r="34" spans="2:33" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
       <c r="U34" s="31"/>
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
@@ -1996,8 +2007,9 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="17"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2030,42 +2042,42 @@
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
     </row>
-    <row r="37" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -2081,27 +2093,27 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2142,21 +2154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2373,32 +2370,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2415,4 +2402,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>